--- a/bom.xlsx
+++ b/bom.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sophia/Google Drive/Twenty 19/06. Industrial Design/04. Concepts/02. Circuit Board/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sophia/Google Drive/Twenty 19/06. Industrial Design/04. Making/02. Circuit Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="4420" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,223 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/espressif-systems/ESP32-WROOM-32D/1904-1023-1-ND/9381732</t>
+  </si>
+  <si>
+    <t>ESP32-WROOM-32D</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>USB to UART</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/silicon-labs/CP2102N-A02-GQFN24R/336-5888-1-ND/9863482</t>
+  </si>
+  <si>
+    <t>CP2102N-A02-GQFN24R</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OT</t>
+  </si>
+  <si>
+    <t>Battery Charger</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/microchip-technology/MCP73831T-2ACI-OT/MCP73831T-2ACI-OTCT-ND/1979802</t>
+  </si>
+  <si>
+    <t>Mosfet</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/diodes-incorporated/DMG2301L-7/DMG2301L-7DICT-ND/8545979</t>
+  </si>
+  <si>
+    <t>DMG2301L-7</t>
+  </si>
+  <si>
+    <t>Dual Transistor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/rohm-semiconductor/UMH3NTN/UMH3NTNCT-ND/1158914</t>
+  </si>
+  <si>
+    <t>Capactive Touch</t>
+  </si>
+  <si>
+    <t>CY8CMBR3116</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/cypress-semiconductor-corp/CY8CMBR3116-LQXIT/428-3957-1-ND/6685709</t>
+  </si>
+  <si>
+    <t>LSM6DS3</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/stmicroelectronics/LSM6DS3TR/497-15383-1-ND/5180534</t>
+  </si>
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>u4</t>
+  </si>
+  <si>
+    <t>u5</t>
+  </si>
+  <si>
+    <t>u6</t>
+  </si>
+  <si>
+    <t>u7</t>
+  </si>
+  <si>
+    <t>u8</t>
+  </si>
+  <si>
+    <t>Designator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacturer Part Number or Seeed SKU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMH3NTCT</t>
+  </si>
+  <si>
+    <t>U-F-M5DD-Y-L1</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>B3U-1000P</t>
+  </si>
+  <si>
+    <t>http://www.omron.com/ecb/products/pdf/en-b3u.pdf</t>
+  </si>
+  <si>
+    <t>LM1117IMPX-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/lm1117.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/texas-instruments/TPA2005D1DGNR/296-26876-1-ND/2255197</t>
+  </si>
+  <si>
+    <t>TPA2005D1DGNR</t>
+  </si>
+  <si>
+    <t>Amp</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>http://file.elecfans.com/web1/M00/8D/3A/o4YBAFyjBCuAR8xSAAK30ZfB1H8214.pdf?filename=BAT760_Nexperia.pdf</t>
+  </si>
+  <si>
+    <t>BAT760</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,13 +262,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,14 +559,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="7"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.1142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.52249999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bom.xlsx
+++ b/bom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
   <si>
     <t>Price</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Mosfet</t>
   </si>
   <si>
-    <t>https://www.digikey.co.nz/product-detail/en/diodes-incorporated/DMG2301L-7/DMG2301L-7DICT-ND/8545979</t>
-  </si>
-  <si>
-    <t>DMG2301L-7</t>
-  </si>
-  <si>
     <t>Dual Transistor</t>
   </si>
   <si>
@@ -87,46 +81,12 @@
   </si>
   <si>
     <t>https://www.digikey.co.nz/product-detail/en/cypress-semiconductor-corp/CY8CMBR3116-LQXIT/428-3957-1-ND/6685709</t>
-  </si>
-  <si>
-    <t>LSM6DS3</t>
-  </si>
-  <si>
-    <t>IMU</t>
-  </si>
-  <si>
-    <t>https://www.digikey.co.nz/product-detail/en/stmicroelectronics/LSM6DS3TR/497-15383-1-ND/5180534</t>
-  </si>
-  <si>
-    <t>u1</t>
-  </si>
-  <si>
-    <t>u2</t>
-  </si>
-  <si>
-    <t>u4</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>u6</t>
-  </si>
-  <si>
-    <t>u7</t>
-  </si>
-  <si>
-    <t>u8</t>
   </si>
   <si>
     <t>Designator</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Manufacturer Part Number or Seeed SKU</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Qty</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -135,12 +95,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UMH3NTCT</t>
-  </si>
-  <si>
-    <t>U-F-M5DD-Y-L1</t>
-  </si>
-  <si>
     <t>USB</t>
   </si>
   <si>
@@ -150,9 +104,6 @@
     <t>B3U-1000P</t>
   </si>
   <si>
-    <t>http://www.omron.com/ecb/products/pdf/en-b3u.pdf</t>
-  </si>
-  <si>
     <t>LM1117IMPX-3.3/NOPB</t>
   </si>
   <si>
@@ -168,23 +119,312 @@
     <t>Amp</t>
   </si>
   <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>http://file.elecfans.com/web1/M00/8D/3A/o4YBAFyjBCuAR8xSAAK30ZfB1H8214.pdf?filename=BAT760_Nexperia.pdf</t>
-  </si>
-  <si>
-    <t>BAT760</t>
+    <t>CL21A106KPFNNNE</t>
+  </si>
+  <si>
+    <t>Cap 0.1uF</t>
+  </si>
+  <si>
+    <t>Cap 10uF</t>
+  </si>
+  <si>
+    <t>C1, C4, C5, C6, C8, C19</t>
+  </si>
+  <si>
+    <t>CL21B104MACNNNC</t>
+  </si>
+  <si>
+    <t>C2, C3, C13, C14</t>
+  </si>
+  <si>
+    <t>CL21B222KBANNNC</t>
+  </si>
+  <si>
+    <t>C7, C9, C11</t>
+  </si>
+  <si>
+    <t>Cap 2200pF</t>
+  </si>
+  <si>
+    <t>CL21B105KOFNNNG</t>
+  </si>
+  <si>
+    <t>C10, C12, C15, C16, C17, C18</t>
+  </si>
+  <si>
+    <t>Cap 1uF</t>
+  </si>
+  <si>
+    <t>455-2247-ND</t>
+  </si>
+  <si>
+    <t>JST 2 Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>455-2257-ND</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10K0</t>
+  </si>
+  <si>
+    <t>Res 10k</t>
+  </si>
+  <si>
+    <t>RMCF0805FT1K00</t>
+  </si>
+  <si>
+    <t>Res 1k</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R1, R3, R4, R5</t>
+  </si>
+  <si>
+    <t>RMCF0805FT100K</t>
+  </si>
+  <si>
+    <t>Res 100k</t>
+  </si>
+  <si>
+    <t>R6, R7, R9</t>
+  </si>
+  <si>
+    <t>RMCF0805FT330R</t>
+  </si>
+  <si>
+    <t>Res 330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8, R10 </t>
+  </si>
+  <si>
+    <t>R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>10118193-0001LF</t>
+  </si>
+  <si>
+    <t>USB1</t>
+  </si>
+  <si>
+    <t>RMCF1206FT150K</t>
+  </si>
+  <si>
+    <t>G1, G2</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J5, J6, J7, J8, J9</t>
+  </si>
+  <si>
+    <t>GROVE CONNECTORS</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>1727-4825-1-ND</t>
+  </si>
+  <si>
+    <t>J13, J14, J15, J16</t>
+  </si>
+  <si>
+    <t>WM4010-ND</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Price Extended</t>
+  </si>
+  <si>
+    <t>Res 150K (Hand-Solderable)</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Grove Connectors</t>
+  </si>
+  <si>
+    <t>Speaker Connector</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/stackpole-electronics-inc/RMCF0805FT1K00/RMCF0805FT1K00CT-ND/1942370</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/stackpole-electronics-inc/RMCF0805FT330R/RMCF0805FT330RCT-ND/1942351</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/stackpole-electronics-inc/RMCF1206FT150K/RMCF1206FT150KCT-ND/1942733</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/stackpole-electronics-inc/RMCF0805FT10K0/RMCF0805FT10K0CT-ND/1942435</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/stackpole-electronics-inc/RMCF0805FT100K/RMCF0805FT100KCT-ND/1942491</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/jst-sales-america-inc/B2B-XH-A-LF-SN/455-2247-ND/1651045</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/amphenol-icc-fci/10118193-0001LF/609-4616-1-ND/2785380</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/nexperia-usa-inc/BAT760115/1727-4825-1-ND/2531312</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/molex/0022032121/WM4010-ND/26643</t>
+  </si>
+  <si>
+    <t>RMCF0805FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0805FT330RCT-ND</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Digikey Part Number</t>
+  </si>
+  <si>
+    <t>RMCF1206FT150KCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0805FT100KCT-ND</t>
+  </si>
+  <si>
+    <t>1276-2449-1-ND</t>
+  </si>
+  <si>
+    <t>B2B-XH-A-LF-SN</t>
+  </si>
+  <si>
+    <t>1276-1171-1-ND </t>
+  </si>
+  <si>
+    <t>1276-6471-1-ND </t>
+  </si>
+  <si>
+    <t>S2B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>609-4616-1-ND</t>
+  </si>
+  <si>
+    <t>UMH3NTNCT-ND</t>
+  </si>
+  <si>
+    <t>1276-1052-1-ND</t>
+  </si>
+  <si>
+    <t>SW1020CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/omron-electronics-inc-emc-div/B3U-1000P/SW1020CT-ND/1534357</t>
+  </si>
+  <si>
+    <t>LM1117IMPX-3.3/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>296-26876-1-ND</t>
+  </si>
+  <si>
+    <t>336-5888-1-ND</t>
+  </si>
+  <si>
+    <t>428-3957-1-ND</t>
+  </si>
+  <si>
+    <t>1904-1023-1-ND</t>
+  </si>
+  <si>
+    <t>UMH3NTN</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OTCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JG560RCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/stackpole-electronics-inc/RMCF1206JG560R/RMCF1206JG560RCT-ND/4425370</t>
+  </si>
+  <si>
+    <t>Res 510</t>
+  </si>
+  <si>
+    <t>RMCF1206JG560R</t>
+  </si>
+  <si>
+    <t>NTR3A052PZT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>NTR3A052PZT1G</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/NTR3A052PZT1G/NTR3A052PZT1GOSCT-ND/8538809</t>
+  </si>
+  <si>
+    <t>Quanity</t>
+  </si>
+  <si>
+    <t>Qty Extended</t>
+  </si>
+  <si>
+    <t>Header (3 * 4 Pins)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,34 +454,55 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="10"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="Helvetica"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -267,19 +528,31 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -559,273 +832,927 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="7"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="5"/>
+    <col min="11" max="12" width="10.83203125" style="4"/>
+    <col min="13" max="13" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2*$H$31</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="16">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I2" s="6">
+        <f>H2*E2</f>
+        <v>0.27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E26" si="0">D3*$H$31</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="16">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I26" si="1">H3*E3</f>
+        <v>0.54</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="16">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H6" s="15">
+        <v>2.53E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.53</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5579999999999998</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>3.24</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9240000000000004</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.503</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="H13" s="15">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6064000000000003</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>5.82</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>6.588000000000001</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="5">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8528000000000002</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1.69</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>10.14</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1.782</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>10.692</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="15">
+        <v>4.5620000000000003</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>27.372</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="14">
+        <v>22032121</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>9.3419999999999987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="15">
+        <f>0.13*1.55</f>
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8">
-        <v>6.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="H26" s="17">
+        <v>6.33</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>37.980000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I27" s="6">
+        <f>SUM(I1:I26)</f>
+        <v>169.28399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="19">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7">
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.1142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.52249999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="H32" s="18"/>
     </row>
   </sheetData>
+  <sortState ref="A2:J32">
+    <sortCondition ref="J1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="F26" r:id="rId1"/>
+    <hyperlink ref="F14" r:id="rId2"/>
+    <hyperlink ref="F21" r:id="rId3"/>
+    <hyperlink ref="F19" r:id="rId4"/>
+    <hyperlink ref="F12" r:id="rId5"/>
+    <hyperlink ref="F17" r:id="rId6"/>
+    <hyperlink ref="F16" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2*$H$31</f>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>85</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="I2" s="6">
         <f>H2*E2</f>
-        <v>0.27</v>
+        <v>4.5</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>82</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E26" si="0">D3*$H$31</f>
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>86</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I26" si="1">H3*E3</f>
-        <v>0.54</v>
+        <v>9</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>82</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>88</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" si="1"/>
-        <v>0.80999999999999994</v>
+        <v>13.5</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>82</v>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>89</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0.80999999999999994</v>
+        <v>13.5</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>82</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>30</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0.60719999999999996</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>82</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>37</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>1.53</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>82</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>40</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>1.2636000000000001</v>
+        <v>21.06</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>82</v>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>124</v>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>3.5579999999999998</v>
+        <v>59.3</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>82</v>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>42</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>3.24</v>
+        <v>54</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>82</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>91</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>3.9240000000000004</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>82</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>14</v>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>3.0179999999999998</v>
+        <v>50.3</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>82</v>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>2.6064000000000003</v>
+        <v>43.440000000000005</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>82</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>11</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>5.82</v>
+        <v>97</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>82</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>92</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>6.588000000000001</v>
+        <v>109.80000000000001</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>82</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>1600</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>119</v>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="1"/>
-        <v>1.8528000000000002</v>
+        <v>30.880000000000003</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>82</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>110</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>9.6000000000000014</v>
+        <v>160</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>82</v>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>25</v>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>10.14</v>
+        <v>169</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>82</v>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>26</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>10.692</v>
+        <v>178.2</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>82</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>6</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>225</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>82</v>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>17</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>27.372</v>
+        <v>456.20000000000005</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>82</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>87</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>90</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="1"/>
-        <v>1.41</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>93</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="1"/>
-        <v>9.3419999999999987</v>
+        <v>155.69999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>83</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="1"/>
-        <v>12.09</v>
+        <v>201.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>1</v>
@@ -1708,13 +1708,13 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="1"/>
-        <v>37.980000000000004</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I27" s="6">
         <f>SUM(I1:I26)</f>
-        <v>169.28399999999999</v>
+        <v>2821.4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1731,7 +1731,7 @@
         <v>125</v>
       </c>
       <c r="H31" s="19">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
